--- a/Panels/parameter_estimates_Omega_PresenceAbsence_plot_id.xlsx
+++ b/Panels/parameter_estimates_Omega_PresenceAbsence_plot_id.xlsx
@@ -362,69 +362,69 @@
     <row r="1" s="1" customFormat="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>an_maculipennis</t>
+          <t>An. maculipennis</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>an_claviger</t>
+          <t>An. claviger</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>cx_pipiens</t>
+          <t>Cx. pipiens</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>cs_annulata</t>
+          <t>Cs. annulata</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>water_boatman</t>
+          <t>Corixidae</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>water_beetle_larva</t>
+          <t>Coleoptera larvae</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>water_beetle</t>
+          <t>Coleoptera</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>damselfly_larva</t>
+          <t>Zygoptera larvae</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>dragonfly_larva</t>
+          <t>Anisoptera larvae</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>saucer_bug</t>
+          <t>Ilyocoris</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>water_scorpion</t>
+          <t>Nepa cinerea</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>gammarus</t>
+          <t>Gammaridae</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>an_maculipennis</t>
+          <t>An. maculipennis</t>
         </is>
       </c>
       <c r="B2">
@@ -434,7 +434,7 @@
         <v>-0.6599904676063855</v>
       </c>
       <c r="D2">
-        <v>-0.5446777826579225</v>
+        <v>-0.5446777826579226</v>
       </c>
       <c r="E2">
         <v>-0.5027507894204482</v>
@@ -467,7 +467,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>an_claviger</t>
+          <t>An. claviger</t>
         </is>
       </c>
       <c r="B3">
@@ -501,20 +501,20 @@
         <v>-0.5758350439352449</v>
       </c>
       <c r="L3">
-        <v>-0.5269273268201043</v>
+        <v>-0.5269273268201044</v>
       </c>
       <c r="M3">
-        <v>-0.8183938600680541</v>
+        <v>-0.8183938600680542</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>cx_pipiens</t>
+          <t>Cx. pipiens</t>
         </is>
       </c>
       <c r="B4">
-        <v>-0.5446777826579225</v>
+        <v>-0.5446777826579226</v>
       </c>
       <c r="C4">
         <v>0.7190958294381807</v>
@@ -535,7 +535,7 @@
         <v>-0.6870389363467143</v>
       </c>
       <c r="I4">
-        <v>-0.6988563860051848</v>
+        <v>-0.6988563860051849</v>
       </c>
       <c r="J4">
         <v>-0.672021606719747</v>
@@ -544,7 +544,7 @@
         <v>-0.499100892983196</v>
       </c>
       <c r="L4">
-        <v>-0.4086853183937565</v>
+        <v>-0.4086853183937566</v>
       </c>
       <c r="M4">
         <v>-0.6863867169847379</v>
@@ -553,7 +553,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>cs_annulata</t>
+          <t>Cs. annulata</t>
         </is>
       </c>
       <c r="B5">
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>water_boatman</t>
+          <t>Corixidae</t>
         </is>
       </c>
       <c r="B6">
@@ -618,7 +618,7 @@
         <v>0.982602851244426</v>
       </c>
       <c r="H6">
-        <v>0.9924857390013277</v>
+        <v>0.9924857390013278</v>
       </c>
       <c r="I6">
         <v>0.994782655432765</v>
@@ -630,7 +630,7 @@
         <v>0.6930039899504782</v>
       </c>
       <c r="L6">
-        <v>0.6650742201912972</v>
+        <v>0.6650742201912973</v>
       </c>
       <c r="M6">
         <v>0.9928689598032564</v>
@@ -639,7 +639,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>water_beetle_larva</t>
+          <t>Coleoptera larvae</t>
         </is>
       </c>
       <c r="B7">
@@ -682,7 +682,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>water_beetle</t>
+          <t>Coleoptera</t>
         </is>
       </c>
       <c r="B8">
@@ -698,7 +698,7 @@
         <v>-0.6402583189992439</v>
       </c>
       <c r="F8">
-        <v>0.9924857390013277</v>
+        <v>0.9924857390013278</v>
       </c>
       <c r="G8">
         <v>0.9826805377864212</v>
@@ -725,7 +725,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>damselfly_larva</t>
+          <t>Zygoptera larvae</t>
         </is>
       </c>
       <c r="B9">
@@ -735,7 +735,7 @@
         <v>-0.8229983387647862</v>
       </c>
       <c r="D9">
-        <v>-0.6988563860051848</v>
+        <v>-0.6988563860051849</v>
       </c>
       <c r="E9">
         <v>-0.652267782532493</v>
@@ -768,7 +768,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>dragonfly_larva</t>
+          <t>Anisoptera larvae</t>
         </is>
       </c>
       <c r="B10">
@@ -799,7 +799,7 @@
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.680448668932716</v>
+        <v>0.6804486689327161</v>
       </c>
       <c r="L10">
         <v>0.6554202861174829</v>
@@ -811,7 +811,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>saucer_bug</t>
+          <t>Ilyocoris</t>
         </is>
       </c>
       <c r="B11">
@@ -839,7 +839,7 @@
         <v>0.6936873927756829</v>
       </c>
       <c r="J11">
-        <v>0.680448668932716</v>
+        <v>0.6804486689327161</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -854,23 +854,23 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>water_scorpion</t>
+          <t>Nepa cinerea</t>
         </is>
       </c>
       <c r="B12">
         <v>0.5484703958242687</v>
       </c>
       <c r="C12">
-        <v>-0.5269273268201043</v>
+        <v>-0.5269273268201044</v>
       </c>
       <c r="D12">
-        <v>-0.4086853183937565</v>
+        <v>-0.4086853183937566</v>
       </c>
       <c r="E12">
         <v>-0.3704077258104782</v>
       </c>
       <c r="F12">
-        <v>0.6650742201912972</v>
+        <v>0.6650742201912973</v>
       </c>
       <c r="G12">
         <v>0.6624334235422206</v>
@@ -897,14 +897,14 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>gammarus</t>
+          <t>Gammaridae</t>
         </is>
       </c>
       <c r="B13">
         <v>0.8091427275056338</v>
       </c>
       <c r="C13">
-        <v>-0.8183938600680541</v>
+        <v>-0.8183938600680542</v>
       </c>
       <c r="D13">
         <v>-0.6863867169847379</v>
@@ -953,69 +953,69 @@
     <row r="1" s="1" customFormat="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>an_maculipennis</t>
+          <t>An. maculipennis</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>an_claviger</t>
+          <t>An. claviger</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>cx_pipiens</t>
+          <t>Cx. pipiens</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>cs_annulata</t>
+          <t>Cs. annulata</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>water_boatman</t>
+          <t>Corixidae</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>water_beetle_larva</t>
+          <t>Coleoptera larvae</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>water_beetle</t>
+          <t>Coleoptera</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>damselfly_larva</t>
+          <t>Zygoptera larvae</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>dragonfly_larva</t>
+          <t>Anisoptera larvae</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>saucer_bug</t>
+          <t>Ilyocoris</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>water_scorpion</t>
+          <t>Nepa cinerea</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>gammarus</t>
+          <t>Gammaridae</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>an_maculipennis</t>
+          <t>An. maculipennis</t>
         </is>
       </c>
       <c r="B2">
@@ -1058,7 +1058,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>an_claviger</t>
+          <t>An. claviger</t>
         </is>
       </c>
       <c r="B3">
@@ -1074,7 +1074,7 @@
         <v>0.908375</v>
       </c>
       <c r="F3">
-        <v>0.07153125</v>
+        <v>0.07153125000000001</v>
       </c>
       <c r="G3">
         <v>0.07465624999999999</v>
@@ -1101,7 +1101,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>cx_pipiens</t>
+          <t>Cx. pipiens</t>
         </is>
       </c>
       <c r="B4">
@@ -1144,7 +1144,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>cs_annulata</t>
+          <t>Cs. annulata</t>
         </is>
       </c>
       <c r="B5">
@@ -1187,14 +1187,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>water_boatman</t>
+          <t>Corixidae</t>
         </is>
       </c>
       <c r="B6">
         <v>0.92684375</v>
       </c>
       <c r="C6">
-        <v>0.07153125</v>
+        <v>0.07153125000000001</v>
       </c>
       <c r="D6">
         <v>0.04684375</v>
@@ -1230,7 +1230,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>water_beetle_larva</t>
+          <t>Coleoptera larvae</t>
         </is>
       </c>
       <c r="B7">
@@ -1264,7 +1264,7 @@
         <v>0.86075</v>
       </c>
       <c r="L7">
-        <v>0.8501562499999999</v>
+        <v>0.85015625</v>
       </c>
       <c r="M7">
         <v>0.99984375</v>
@@ -1273,7 +1273,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>water_beetle</t>
+          <t>Coleoptera</t>
         </is>
       </c>
       <c r="B8">
@@ -1304,7 +1304,7 @@
         <v>0.995875</v>
       </c>
       <c r="K8">
-        <v>0.86159375</v>
+        <v>0.8615937500000001</v>
       </c>
       <c r="L8">
         <v>0.85046875</v>
@@ -1316,7 +1316,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>damselfly_larva</t>
+          <t>Zygoptera larvae</t>
         </is>
       </c>
       <c r="B9">
@@ -1347,10 +1347,10 @@
         <v>0.99584375</v>
       </c>
       <c r="K9">
-        <v>0.8618749999999999</v>
+        <v>0.861875</v>
       </c>
       <c r="L9">
-        <v>0.849875</v>
+        <v>0.8498750000000001</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -1359,7 +1359,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>dragonfly_larva</t>
+          <t>Anisoptera larvae</t>
         </is>
       </c>
       <c r="B10">
@@ -1402,7 +1402,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>saucer_bug</t>
+          <t>Ilyocoris</t>
         </is>
       </c>
       <c r="B11">
@@ -1424,10 +1424,10 @@
         <v>0.86075</v>
       </c>
       <c r="H11">
-        <v>0.86159375</v>
+        <v>0.8615937500000001</v>
       </c>
       <c r="I11">
-        <v>0.8618749999999999</v>
+        <v>0.861875</v>
       </c>
       <c r="J11">
         <v>0.85859375</v>
@@ -1436,7 +1436,7 @@
         <v>1</v>
       </c>
       <c r="L11">
-        <v>0.7534999999999999</v>
+        <v>0.7535</v>
       </c>
       <c r="M11">
         <v>0.86171875</v>
@@ -1445,7 +1445,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>water_scorpion</t>
+          <t>Nepa cinerea</t>
         </is>
       </c>
       <c r="B12">
@@ -1464,19 +1464,19 @@
         <v>0.84946875</v>
       </c>
       <c r="G12">
-        <v>0.8501562499999999</v>
+        <v>0.85015625</v>
       </c>
       <c r="H12">
         <v>0.85046875</v>
       </c>
       <c r="I12">
-        <v>0.849875</v>
+        <v>0.8498750000000001</v>
       </c>
       <c r="J12">
         <v>0.84671875</v>
       </c>
       <c r="K12">
-        <v>0.7534999999999999</v>
+        <v>0.7535</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -1488,7 +1488,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>gammarus</t>
+          <t>Gammaridae</t>
         </is>
       </c>
       <c r="B13">
@@ -1544,69 +1544,69 @@
     <row r="1" s="1" customFormat="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>an_maculipennis</t>
+          <t>An. maculipennis</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>an_claviger</t>
+          <t>An. claviger</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>cx_pipiens</t>
+          <t>Cx. pipiens</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>cs_annulata</t>
+          <t>Cs. annulata</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>water_boatman</t>
+          <t>Corixidae</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>water_beetle_larva</t>
+          <t>Coleoptera larvae</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>water_beetle</t>
+          <t>Coleoptera</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>damselfly_larva</t>
+          <t>Zygoptera larvae</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>dragonfly_larva</t>
+          <t>Anisoptera larvae</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>saucer_bug</t>
+          <t>Ilyocoris</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>water_scorpion</t>
+          <t>Nepa cinerea</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>gammarus</t>
+          <t>Gammaridae</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>an_maculipennis</t>
+          <t>An. maculipennis</t>
         </is>
       </c>
       <c r="B2">
@@ -1649,7 +1649,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>an_claviger</t>
+          <t>An. claviger</t>
         </is>
       </c>
       <c r="B3">
@@ -1692,7 +1692,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>cx_pipiens</t>
+          <t>Cx. pipiens</t>
         </is>
       </c>
       <c r="B4">
@@ -1735,7 +1735,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>cs_annulata</t>
+          <t>Cs. annulata</t>
         </is>
       </c>
       <c r="B5">
@@ -1778,7 +1778,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>water_boatman</t>
+          <t>Corixidae</t>
         </is>
       </c>
       <c r="B6">
@@ -1821,7 +1821,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>water_beetle_larva</t>
+          <t>Coleoptera larvae</t>
         </is>
       </c>
       <c r="B7">
@@ -1864,7 +1864,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>water_beetle</t>
+          <t>Coleoptera</t>
         </is>
       </c>
       <c r="B8">
@@ -1907,7 +1907,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>damselfly_larva</t>
+          <t>Zygoptera larvae</t>
         </is>
       </c>
       <c r="B9">
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.004156249999999972</v>
+        <v>0.004156249999999973</v>
       </c>
       <c r="K9">
         <v>0.1381250000000001</v>
@@ -1950,7 +1950,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>dragonfly_larva</t>
+          <t>Anisoptera larvae</t>
         </is>
       </c>
       <c r="B10">
@@ -1975,7 +1975,7 @@
         <v>0.004125000000000045</v>
       </c>
       <c r="I10">
-        <v>0.004156249999999972</v>
+        <v>0.004156249999999973</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1993,7 +1993,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>saucer_bug</t>
+          <t>Ilyocoris</t>
         </is>
       </c>
       <c r="B11">
@@ -2036,7 +2036,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>water_scorpion</t>
+          <t>Nepa cinerea</t>
         </is>
       </c>
       <c r="B12">
@@ -2079,7 +2079,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>gammarus</t>
+          <t>Gammaridae</t>
         </is>
       </c>
       <c r="B13">
